--- a/BH-2.xlsx
+++ b/BH-2.xlsx
@@ -493,7 +493,7 @@
   <dimension ref="A1:N19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K20" sqref="K20"/>
+      <selection activeCell="N20" sqref="N20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -606,7 +606,7 @@
         <v>15</v>
       </c>
       <c r="N4">
-        <v>30</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -641,7 +641,7 @@
         <v>13</v>
       </c>
       <c r="N5">
-        <v>16</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -673,7 +673,7 @@
         <v>31</v>
       </c>
       <c r="N6">
-        <v>18</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -696,7 +696,7 @@
         <v>91</v>
       </c>
       <c r="N7">
-        <v>7</v>
+        <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -722,7 +722,7 @@
         <v>99</v>
       </c>
       <c r="N8">
-        <v>6</v>
+        <v>17</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -757,7 +757,7 @@
         <v>22</v>
       </c>
       <c r="N9">
-        <v>2</v>
+        <v>16</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -783,7 +783,7 @@
         <v>96</v>
       </c>
       <c r="N10">
-        <v>2</v>
+        <v>27</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -803,7 +803,7 @@
         <v>2</v>
       </c>
       <c r="N11">
-        <v>2</v>
+        <v>30</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -838,7 +838,7 @@
         <v>23</v>
       </c>
       <c r="N12">
-        <v>2</v>
+        <v>40</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -858,7 +858,7 @@
         <v>1.98</v>
       </c>
       <c r="N13">
-        <v>13</v>
+        <v>32</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -893,7 +893,7 @@
         <v>19</v>
       </c>
       <c r="N14">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -913,7 +913,7 @@
         <v>2.0699999999999998</v>
       </c>
       <c r="N15">
-        <v>29</v>
+        <v>45</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -948,7 +948,7 @@
         <v>26</v>
       </c>
       <c r="N16">
-        <v>54</v>
+        <v>52</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -968,7 +968,7 @@
         <v>2.08</v>
       </c>
       <c r="N17">
-        <v>56</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1003,7 +1003,7 @@
         <v>12</v>
       </c>
       <c r="N18">
-        <v>63</v>
+        <v>52</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1033,6 +1033,9 @@
       </c>
       <c r="J19">
         <v>8</v>
+      </c>
+      <c r="N19">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
